--- a/EDA - DS4002.xlsx
+++ b/EDA - DS4002.xlsx
@@ -6432,11 +6432,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="837337576"/>
-        <c:axId val="1973812571"/>
+        <c:axId val="1866273651"/>
+        <c:axId val="868676841"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="837337576"/>
+        <c:axId val="1866273651"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6488,10 +6488,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1973812571"/>
+        <c:crossAx val="868676841"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1973812571"/>
+        <c:axId val="868676841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6566,7 +6566,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="837337576"/>
+        <c:crossAx val="1866273651"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
